--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="90">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -264,6 +264,27 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;tag&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value_num&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value_dir&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value_time&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value2&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value1&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;value&gt;.</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1793,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -1789,7 +1810,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -1806,7 +1827,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
@@ -1823,7 +1844,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10">
@@ -2061,7 +2082,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="101">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -285,6 +285,39 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;value&gt;.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*-z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0123456789-.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId29</t>
   </si>
 </sst>
 </file>
@@ -1526,9 +1559,13 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4"/>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -1562,9 +1599,13 @@
       <c r="F5" t="s">
         <v>17</v>
       </c>
-      <c r="G5"/>
+      <c r="G5" t="s">
+        <v>91</v>
+      </c>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -1596,9 +1637,13 @@
       <c r="F6" t="s">
         <v>17</v>
       </c>
-      <c r="G6"/>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
         <v>2</v>
@@ -1946,7 +1991,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -1963,7 +2008,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17">
@@ -1980,7 +2025,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1997,7 +2042,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2014,7 +2059,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20">
@@ -2031,7 +2076,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -2048,7 +2093,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -2065,7 +2110,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -2083,6 +2128,142 @@
       </c>
       <c r="F23" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2140" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="109">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -318,6 +318,30 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+-&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">--</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleUseId34</t>
   </si>
 </sst>
 </file>
@@ -1564,7 +1588,7 @@
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J4"/>
       <c r="L4" s="4" t="s">
@@ -1604,7 +1628,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J5"/>
       <c r="L5" s="7" t="s">
@@ -1642,7 +1666,7 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="J6"/>
       <c r="L6" s="7" t="s">
@@ -1889,7 +1913,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
@@ -2263,6 +2287,91 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
         <v>93</v>
       </c>
     </row>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="109">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1578,7 +1578,7 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
@@ -1618,7 +1618,7 @@
         <v>30</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
@@ -1656,7 +1656,7 @@
         <v>16</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1862,7 +1862,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -1879,7 +1879,7 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -1896,7 +1896,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9">
@@ -2338,7 +2338,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35">
@@ -2355,26 +2355,10 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s">
-        <v>108</v>
-      </c>
-      <c r="C36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" t="s">
-        <v>93</v>
-      </c>
-    </row>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="36"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3382" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="109">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -2324,40 +2324,8 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34">
-      <c r="B34" t="s">
-        <v>104</v>
-      </c>
-      <c r="C34" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="s">
-        <v>106</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F35" t="s">
-        <v>105</v>
-      </c>
-    </row>
+    <row r="34"/>
+    <row r="35"/>
     <row r="36"/>
   </sheetData>
   <mergeCells count="1">

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="111">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -2304,7 +2310,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33">
@@ -2321,7 +2327,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34"/>

--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3782" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3982" uniqueCount="112">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t xml:space="preserve">&gt;&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stdev:</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2007,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15">
